--- a/bom/BOM_X_Hemera.xlsx
+++ b/bom/BOM_X_Hemera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{970D4449-C881-483A-B9BD-E90C29592958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7B2E252A-2975-4A9C-84DD-400C81BD682E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{970D4449-C881-483A-B9BD-E90C29592958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D916F52-4BD1-43ED-BC64-53DBAFF33B2F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="From Fusion 360" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'From Fusion 360'!$B$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'From Fusion 360'!$B$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -227,6 +227,9 @@
   <si>
     <t>E3D V6 Hotend Assembly 
 (Copper Plated Block recommended)</t>
+  </si>
+  <si>
+    <t>Comment</t>
   </si>
 </sst>
 </file>
@@ -616,7 +619,42 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="16">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -913,8 +951,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="2" xr9:uid="{47752A86-0FAF-40BD-8836-04F195BC7F54}">
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="14"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -995,7 +1033,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vendor URL / STL Source</c:v>
+                  <c:v>Vendor</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1017,92 +1055,6 @@
                 <c:ptCount val="32"/>
                 <c:lvl>
                   <c:pt idx="1">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>E3D-Online</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>E3D-Online</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>E3D-Online</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>E3D_Online</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>AliExpress</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>Thingiverse</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>Various</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="2">
@@ -1643,6 +1595,580 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E003-44FC-BB7C-079EF6E1CF83}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'From Fusion 360'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vendor URL / STL Source</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'From Fusion 360'!$A$2:$G$33</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="32"/>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>X_Hemera_BlTouchMount_V6_BodyV1 (1)</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>E3D V6 Hotend Assembly 
+(Copper Plated Block recommended)</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BerdAir Volcano</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>X_Hemera_BlTouchMount_Volcano_BodyV1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Volcano hotend - Assemble</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>BerdAir SuperVolcano</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>X_Hemera_BlTouchMount_SuperVolcanoBodyV1.5</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>E3D_SuperVolcano</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>E3D_Hemera_Final v1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>bltouch</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Opto endstop PM</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>X_CarriageBODY_Hemera_Body_V1</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>X_CarriageTop_Hemera_Body</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>HevORT LOGO v1</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>X_CarriageEndStopMount_Body</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>BeltTensionnerBlock</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>X_BeltHolderFL_Hemera</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>X_BeltHolderRR_Hemera</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>X_BeltHolder_LH</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>M3X8_CapScrew_92290A113</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>M3_Nut_94150A325</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>M3X10_CapScrew_92290A115</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>M3X14_CapScrew_92290A118</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>M3X8_FlatHead_93395A201</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>M3X20_CapScrew_92290A122</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>M3X12_CapScrew_92290A117</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>M3X16_CapScrew_92290A120</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>M3X30_CapScrew_92290A126</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="1">
+                    <c:v>*Option 1 - Bltouch Mount</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>*Option 1-Heat Block</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>*Option 2 - BerAir Duct</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>*Option 2 - Bltouch Mount</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>*Option 2-Heat Block</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>*Option 3 - BerAir Duct</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>*Option 3 - Bltouch Mount</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>*Option 3-Heat Block</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Buy</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Make</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Hardware</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>OPTION 1 - V6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>OPTION 2 - Volcano</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>OPTION 3 - Super Volcano</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>BASELINE</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>X_PRINTHEAD_HEMERA_INSTL_V2v32</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'From Fusion 360'!$I$2:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="32"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5B93-4192-B023-020451F7E060}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3638,17 +4164,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{885FF2AF-B5FC-4F47-A300-1FC648F805E3}" name="Table2" displayName="Table2" ref="A1:H33" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9" totalsRowBorderDxfId="8">
-  <autoFilter ref="A1:H33" xr:uid="{43613B2E-4B9C-4909-98C1-808D4F0E5664}"/>
-  <tableColumns count="8">
-    <tableColumn id="9" xr3:uid="{23EB68CE-D0AB-482E-AAB8-B38992920C62}" name="SubAssy" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{2CD897D7-6AB3-4712-819B-3386734CA20F}" name="Category" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{F4D33DC5-DD2F-4622-9E0D-42FAABD53A4A}" name="Thumbnail" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{E6E61A67-C9EC-4640-9C3A-9368D10596CE}" name="PART DESCRIPTION" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{18E47BD2-FC75-4D4B-9F47-84399209EB00}" name="Make/Buy" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E1D87B91-EA38-42FF-85EC-6236A24267B7}" name="QTY" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{464FA2F9-505F-4052-B5C6-E92F2A6A2A0F}" name="Vendor" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{2EA735D3-C719-4224-9E58-AE5C7EED5AA9}" name="Vendor URL / STL Source" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{885FF2AF-B5FC-4F47-A300-1FC648F805E3}" name="Table2" displayName="Table2" ref="A1:I33" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I33" xr:uid="{43613B2E-4B9C-4909-98C1-808D4F0E5664}"/>
+  <tableColumns count="9">
+    <tableColumn id="9" xr3:uid="{23EB68CE-D0AB-482E-AAB8-B38992920C62}" name="SubAssy" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{2CD897D7-6AB3-4712-819B-3386734CA20F}" name="Category" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{F4D33DC5-DD2F-4622-9E0D-42FAABD53A4A}" name="Thumbnail" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{E6E61A67-C9EC-4640-9C3A-9368D10596CE}" name="PART DESCRIPTION" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{18E47BD2-FC75-4D4B-9F47-84399209EB00}" name="Make/Buy" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{E1D87B91-EA38-42FF-85EC-6236A24267B7}" name="QTY" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{6524A2AD-F081-4B04-982D-A7A02D01F877}" name="Comment" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{464FA2F9-505F-4052-B5C6-E92F2A6A2A0F}" name="Vendor" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{2EA735D3-C719-4224-9E58-AE5C7EED5AA9}" name="Vendor URL / STL Source" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3975,10 +4502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="83.1" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3988,13 +4515,13 @@
     <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
     <col min="4" max="4" width="47.5703125" style="43" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="80.140625" style="37" customWidth="1"/>
-    <col min="9" max="16384" width="8.7109375" style="4"/>
+    <col min="6" max="7" width="18.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="80.140625" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>46</v>
       </c>
@@ -4014,13 +4541,16 @@
         <v>56</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="I1" s="29" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
         <v>50</v>
       </c>
@@ -4029,10 +4559,11 @@
       <c r="D2" s="40"/>
       <c r="E2" s="7"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="30"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>47</v>
       </c>
@@ -4049,14 +4580,15 @@
       <c r="F3" s="12">
         <v>1</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="12"/>
+      <c r="H3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="I3" s="31" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>47</v>
       </c>
@@ -4073,14 +4605,15 @@
       <c r="F4" s="12">
         <v>1</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="I4" s="34" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
         <v>49</v>
       </c>
@@ -4089,10 +4622,11 @@
       <c r="D5" s="40"/>
       <c r="E5" s="15"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="33"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>47</v>
       </c>
@@ -4109,14 +4643,15 @@
       <c r="F6" s="12">
         <v>1</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H6" s="34" t="s">
+      <c r="I6" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>47</v>
       </c>
@@ -4133,14 +4668,15 @@
       <c r="F7" s="12">
         <v>1</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="34" t="s">
+      <c r="I7" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>47</v>
       </c>
@@ -4157,14 +4693,15 @@
       <c r="F8" s="12">
         <v>1</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="I8" s="35" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
         <v>51</v>
       </c>
@@ -4173,10 +4710,11 @@
       <c r="D9" s="40"/>
       <c r="E9" s="15"/>
       <c r="F9" s="8"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="36"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>47</v>
       </c>
@@ -4193,14 +4731,15 @@
       <c r="F10" s="12">
         <v>1</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="12"/>
+      <c r="H10" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="34" t="s">
+      <c r="I10" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
         <v>47</v>
       </c>
@@ -4217,14 +4756,15 @@
       <c r="F11" s="12">
         <v>1</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="12"/>
+      <c r="H11" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="34" t="s">
+      <c r="I11" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>47</v>
       </c>
@@ -4241,14 +4781,15 @@
       <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="12"/>
+      <c r="H12" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="I12" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>48</v>
       </c>
@@ -4257,10 +4798,11 @@
       <c r="D13" s="40"/>
       <c r="E13" s="17"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="33"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>47</v>
       </c>
@@ -4277,14 +4819,15 @@
       <c r="F14" s="12">
         <v>1</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="G14" s="12"/>
+      <c r="H14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="I14" s="35" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>47</v>
       </c>
@@ -4301,14 +4844,15 @@
       <c r="F15" s="12">
         <v>3</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12"/>
+      <c r="H15" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H15" s="32" t="s">
+      <c r="I15" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>47</v>
       </c>
@@ -4325,14 +4869,15 @@
       <c r="F16" s="12">
         <v>1</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="12"/>
+      <c r="H16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="I16" s="35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>47</v>
       </c>
@@ -4349,14 +4894,15 @@
       <c r="F17" s="12">
         <v>1</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="34" t="s">
+      <c r="I17" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>47</v>
       </c>
@@ -4373,14 +4919,15 @@
       <c r="F18" s="12">
         <v>1</v>
       </c>
-      <c r="G18" s="10" t="s">
+      <c r="G18" s="12"/>
+      <c r="H18" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="I18" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>47</v>
       </c>
@@ -4397,14 +4944,15 @@
       <c r="F19" s="12">
         <v>1</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="12"/>
+      <c r="H19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H19" s="34" t="s">
+      <c r="I19" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>47</v>
       </c>
@@ -4421,14 +4969,15 @@
       <c r="F20" s="12">
         <v>1</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="12"/>
+      <c r="H20" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="I20" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>47</v>
       </c>
@@ -4445,14 +4994,15 @@
       <c r="F21" s="12">
         <v>2</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G21" s="12"/>
+      <c r="H21" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="34" t="s">
+      <c r="I21" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>47</v>
       </c>
@@ -4469,14 +5019,15 @@
       <c r="F22" s="12">
         <v>1</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="12"/>
+      <c r="H22" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="I22" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>47</v>
       </c>
@@ -4493,14 +5044,15 @@
       <c r="F23" s="12">
         <v>2</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="H23" s="34" t="s">
+      <c r="I23" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>47</v>
       </c>
@@ -4517,14 +5069,15 @@
       <c r="F24" s="21">
         <v>1</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="G24" s="21"/>
+      <c r="H24" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="I24" s="34" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>47</v>
       </c>
@@ -4541,14 +5094,15 @@
       <c r="F25" s="12">
         <v>10</v>
       </c>
-      <c r="G25" s="10" t="s">
+      <c r="G25" s="12"/>
+      <c r="H25" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="I25" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>47</v>
       </c>
@@ -4565,14 +5119,15 @@
       <c r="F26" s="12">
         <v>19</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="12"/>
+      <c r="H26" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="I26" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>47</v>
       </c>
@@ -4589,14 +5144,15 @@
       <c r="F27" s="12">
         <v>4</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="12"/>
+      <c r="H27" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="I27" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
         <v>47</v>
       </c>
@@ -4613,14 +5169,15 @@
       <c r="F28" s="12">
         <v>1</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="I28" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
         <v>47</v>
       </c>
@@ -4637,14 +5194,15 @@
       <c r="F29" s="12">
         <v>2</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="12"/>
+      <c r="H29" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H29" s="32" t="s">
+      <c r="I29" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
         <v>47</v>
       </c>
@@ -4661,14 +5219,15 @@
       <c r="F30" s="12">
         <v>5</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="G30" s="12"/>
+      <c r="H30" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="I30" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
         <v>47</v>
       </c>
@@ -4685,14 +5244,15 @@
       <c r="F31" s="12">
         <v>1</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="G31" s="12"/>
+      <c r="H31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H31" s="32" t="s">
+      <c r="I31" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
         <v>47</v>
       </c>
@@ -4709,14 +5269,15 @@
       <c r="F32" s="12">
         <v>3</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="G32" s="12"/>
+      <c r="H32" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="I32" s="32" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
         <v>47</v>
       </c>
@@ -4733,29 +5294,30 @@
       <c r="F33" s="12">
         <v>2</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="G33" s="12"/>
+      <c r="H33" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="H33" s="32" t="s">
+      <c r="I33" s="32" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="H12" r:id="rId4" xr:uid="{6CB785C5-1ECE-4087-BC8E-9D46364CC652}"/>
-    <hyperlink ref="H3" r:id="rId5" xr:uid="{01E457B8-544F-4C88-9B6F-B4CC4714F358}"/>
-    <hyperlink ref="H6" r:id="rId6" xr:uid="{1C669413-0CC9-4B01-B1AE-5A4E4011B242}"/>
-    <hyperlink ref="H7" r:id="rId7" xr:uid="{1626E9BB-093B-4935-AA64-73EB1CC1E1A5}"/>
-    <hyperlink ref="H10" r:id="rId8" xr:uid="{AC5A3CCA-E541-4E63-BDB4-252195AE43DF}"/>
-    <hyperlink ref="H11" r:id="rId9" xr:uid="{E4CFB5DF-9A91-410A-894A-6EACF5654AF4}"/>
-    <hyperlink ref="H17" r:id="rId10" xr:uid="{E9630F8B-FFAC-4524-90E6-3263B501F31F}"/>
-    <hyperlink ref="H18" r:id="rId11" xr:uid="{83F8DB56-325E-4922-9D63-7712472A1A59}"/>
-    <hyperlink ref="H19:H24" r:id="rId12" display="https://www.thingiverse.com/thing:4238471" xr:uid="{C10217B6-7780-43C5-B0B2-021C2799D453}"/>
-    <hyperlink ref="H4" r:id="rId13" xr:uid="{D33915D1-07A3-4EC9-906E-1CBEB2AE33FD}"/>
+    <hyperlink ref="I14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I12" r:id="rId4" xr:uid="{6CB785C5-1ECE-4087-BC8E-9D46364CC652}"/>
+    <hyperlink ref="I3" r:id="rId5" xr:uid="{01E457B8-544F-4C88-9B6F-B4CC4714F358}"/>
+    <hyperlink ref="I6" r:id="rId6" xr:uid="{1C669413-0CC9-4B01-B1AE-5A4E4011B242}"/>
+    <hyperlink ref="I7" r:id="rId7" xr:uid="{1626E9BB-093B-4935-AA64-73EB1CC1E1A5}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{AC5A3CCA-E541-4E63-BDB4-252195AE43DF}"/>
+    <hyperlink ref="I11" r:id="rId9" xr:uid="{E4CFB5DF-9A91-410A-894A-6EACF5654AF4}"/>
+    <hyperlink ref="I17" r:id="rId10" xr:uid="{E9630F8B-FFAC-4524-90E6-3263B501F31F}"/>
+    <hyperlink ref="I18" r:id="rId11" xr:uid="{83F8DB56-325E-4922-9D63-7712472A1A59}"/>
+    <hyperlink ref="I19:I24" r:id="rId12" display="https://www.thingiverse.com/thing:4238471" xr:uid="{C10217B6-7780-43C5-B0B2-021C2799D453}"/>
+    <hyperlink ref="I4" r:id="rId13" xr:uid="{D33915D1-07A3-4EC9-906E-1CBEB2AE33FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId14"/>

--- a/bom/BOM_X_Hemera.xlsx
+++ b/bom/BOM_X_Hemera.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{970D4449-C881-483A-B9BD-E90C29592958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7D916F52-4BD1-43ED-BC64-53DBAFF33B2F}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{970D4449-C881-483A-B9BD-E90C29592958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B806EF6D-4219-41D5-885C-3C39300CB3B4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="63">
   <si>
     <t>Thumbnail</t>
   </si>
@@ -124,12 +124,6 @@
   </si>
   <si>
     <t>Opto endstop PM</t>
-  </si>
-  <si>
-    <t>AliExpress</t>
-  </si>
-  <si>
-    <t>https://www.aliexpress.com/item/33006421501.html?spm=a2g0s.9042311.0.0.3e4d4c4dQtB9Y8</t>
   </si>
   <si>
     <t>M3X16_CapScrew_92290A120</t>
@@ -622,41 +616,6 @@
   <dxfs count="16">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -703,6 +662,41 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1535,9 +1529,6 @@
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2107,9 +2098,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
@@ -4173,9 +4161,9 @@
     <tableColumn id="3" xr3:uid="{E6E61A67-C9EC-4640-9C3A-9368D10596CE}" name="PART DESCRIPTION" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{18E47BD2-FC75-4D4B-9F47-84399209EB00}" name="Make/Buy" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{E1D87B91-EA38-42FF-85EC-6236A24267B7}" name="QTY" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6524A2AD-F081-4B04-982D-A7A02D01F877}" name="Comment" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{464FA2F9-505F-4052-B5C6-E92F2A6A2A0F}" name="Vendor" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{2EA735D3-C719-4224-9E58-AE5C7EED5AA9}" name="Vendor URL / STL Source" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{6524A2AD-F081-4B04-982D-A7A02D01F877}" name="Comment" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{464FA2F9-505F-4052-B5C6-E92F2A6A2A0F}" name="Vendor" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{2EA735D3-C719-4224-9E58-AE5C7EED5AA9}" name="Vendor URL / STL Source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4504,8 +4492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="83.1" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4523,36 +4511,36 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="39" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6"/>
@@ -4565,10 +4553,10 @@
     </row>
     <row r="3" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="41" t="s">
@@ -4582,22 +4570,22 @@
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="41" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>4</v>
@@ -4610,12 +4598,12 @@
         <v>12</v>
       </c>
       <c r="I4" s="34" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14"/>
@@ -4628,10 +4616,10 @@
     </row>
     <row r="6" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="41" t="s">
@@ -4645,18 +4633,18 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I6" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="41" t="s">
@@ -4670,18 +4658,18 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="41" t="s">
@@ -4703,7 +4691,7 @@
     </row>
     <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="14"/>
@@ -4716,10 +4704,10 @@
     </row>
     <row r="10" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="41" t="s">
@@ -4733,18 +4721,18 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="41" t="s">
@@ -4758,18 +4746,18 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="41" t="s">
@@ -4786,12 +4774,12 @@
         <v>12</v>
       </c>
       <c r="I12" s="35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="16"/>
@@ -4804,7 +4792,7 @@
     </row>
     <row r="14" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>4</v>
@@ -4829,7 +4817,7 @@
     </row>
     <row r="15" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>4</v>
@@ -4846,15 +4834,15 @@
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I15" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>4</v>
@@ -4870,16 +4858,12 @@
         <v>1</v>
       </c>
       <c r="G16" s="12"/>
-      <c r="H16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>31</v>
-      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="35"/>
     </row>
     <row r="17" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>15</v>
@@ -4896,15 +4880,15 @@
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I17" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>15</v>
@@ -4921,15 +4905,15 @@
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I18" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>15</v>
@@ -4946,15 +4930,15 @@
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I19" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>15</v>
@@ -4971,22 +4955,22 @@
       </c>
       <c r="G20" s="12"/>
       <c r="H20" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I20" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>15</v>
@@ -4996,22 +4980,22 @@
       </c>
       <c r="G21" s="12"/>
       <c r="H21" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I21" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>15</v>
@@ -5021,22 +5005,22 @@
       </c>
       <c r="G22" s="12"/>
       <c r="H22" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I22" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>15</v>
@@ -5046,22 +5030,22 @@
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I23" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E24" s="20" t="s">
         <v>15</v>
@@ -5071,18 +5055,18 @@
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="41" t="s">
@@ -5096,18 +5080,18 @@
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I25" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I25" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="41" t="s">
@@ -5121,18 +5105,18 @@
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I26" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I26" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="41" t="s">
@@ -5146,18 +5130,18 @@
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I27" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I27" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="41" t="s">
@@ -5171,18 +5155,18 @@
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I28" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="41" t="s">
@@ -5196,18 +5180,18 @@
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I29" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I29" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="41" t="s">
@@ -5221,18 +5205,18 @@
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I30" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="41" t="s">
@@ -5246,22 +5230,22 @@
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I31" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="41" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>4</v>
@@ -5271,22 +5255,22 @@
       </c>
       <c r="G32" s="12"/>
       <c r="H32" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I32" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I32" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>4</v>
@@ -5296,10 +5280,10 @@
       </c>
       <c r="G33" s="12"/>
       <c r="H33" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I33" s="32" t="s">
         <v>53</v>
-      </c>
-      <c r="I33" s="32" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -5307,25 +5291,24 @@
   <hyperlinks>
     <hyperlink ref="I14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="I8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="I16" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I12" r:id="rId4" xr:uid="{6CB785C5-1ECE-4087-BC8E-9D46364CC652}"/>
-    <hyperlink ref="I3" r:id="rId5" xr:uid="{01E457B8-544F-4C88-9B6F-B4CC4714F358}"/>
-    <hyperlink ref="I6" r:id="rId6" xr:uid="{1C669413-0CC9-4B01-B1AE-5A4E4011B242}"/>
-    <hyperlink ref="I7" r:id="rId7" xr:uid="{1626E9BB-093B-4935-AA64-73EB1CC1E1A5}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{AC5A3CCA-E541-4E63-BDB4-252195AE43DF}"/>
-    <hyperlink ref="I11" r:id="rId9" xr:uid="{E4CFB5DF-9A91-410A-894A-6EACF5654AF4}"/>
-    <hyperlink ref="I17" r:id="rId10" xr:uid="{E9630F8B-FFAC-4524-90E6-3263B501F31F}"/>
-    <hyperlink ref="I18" r:id="rId11" xr:uid="{83F8DB56-325E-4922-9D63-7712472A1A59}"/>
-    <hyperlink ref="I19:I24" r:id="rId12" display="https://www.thingiverse.com/thing:4238471" xr:uid="{C10217B6-7780-43C5-B0B2-021C2799D453}"/>
-    <hyperlink ref="I4" r:id="rId13" xr:uid="{D33915D1-07A3-4EC9-906E-1CBEB2AE33FD}"/>
+    <hyperlink ref="I12" r:id="rId3" xr:uid="{6CB785C5-1ECE-4087-BC8E-9D46364CC652}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{01E457B8-544F-4C88-9B6F-B4CC4714F358}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{1C669413-0CC9-4B01-B1AE-5A4E4011B242}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{1626E9BB-093B-4935-AA64-73EB1CC1E1A5}"/>
+    <hyperlink ref="I10" r:id="rId7" xr:uid="{AC5A3CCA-E541-4E63-BDB4-252195AE43DF}"/>
+    <hyperlink ref="I11" r:id="rId8" xr:uid="{E4CFB5DF-9A91-410A-894A-6EACF5654AF4}"/>
+    <hyperlink ref="I17" r:id="rId9" xr:uid="{E9630F8B-FFAC-4524-90E6-3263B501F31F}"/>
+    <hyperlink ref="I18" r:id="rId10" xr:uid="{83F8DB56-325E-4922-9D63-7712472A1A59}"/>
+    <hyperlink ref="I19:I24" r:id="rId11" display="https://www.thingiverse.com/thing:4238471" xr:uid="{C10217B6-7780-43C5-B0B2-021C2799D453}"/>
+    <hyperlink ref="I4" r:id="rId12" xr:uid="{D33915D1-07A3-4EC9-906E-1CBEB2AE33FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId14"/>
+  <drawing r:id="rId13"/>
   <webPublishItems count="1">
     <webPublishItem id="1576" divId="BOM_X_Hemera_1576" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_X_Hemera.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId14"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bom/BOM_X_Hemera.xlsx
+++ b/bom/BOM_X_Hemera.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{970D4449-C881-483A-B9BD-E90C29592958}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B806EF6D-4219-41D5-885C-3C39300CB3B4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66974307-108D-4C78-AF9C-0D30FFDB7BE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -1076,7 +1076,7 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>1</c:v>
@@ -1647,7 +1647,7 @@
                     <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>3</c:v>
+                    <c:v>1</c:v>
                   </c:pt>
                   <c:pt idx="14">
                     <c:v>1</c:v>
@@ -4492,24 +4492,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="83.1" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="83.15" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" style="26" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" style="22" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="47.5703125" style="43" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="18.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="80.140625" style="37" customWidth="1"/>
-    <col min="10" max="16384" width="8.7109375" style="4"/>
+    <col min="1" max="1" width="38.81640625" style="26" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="47.54296875" style="43" customWidth="1"/>
+    <col min="5" max="5" width="18.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.453125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="15.26953125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="80.1796875" style="37" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="39.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="38" t="s">
         <v>44</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
         <v>48</v>
       </c>
@@ -4551,7 +4551,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="28" t="s">
         <v>45</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A4" s="28" t="s">
         <v>45</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
         <v>47</v>
       </c>
@@ -4614,7 +4614,7 @@
       <c r="H5" s="14"/>
       <c r="I5" s="33"/>
     </row>
-    <row r="6" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A6" s="28" t="s">
         <v>45</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>45</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A8" s="28" t="s">
         <v>45</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
         <v>49</v>
       </c>
@@ -4702,7 +4702,7 @@
       <c r="H9" s="14"/>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
         <v>45</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A11" s="28" t="s">
         <v>45</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A12" s="28" t="s">
         <v>45</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
         <v>46</v>
       </c>
@@ -4790,7 +4790,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="33"/>
     </row>
-    <row r="14" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A15" s="28" t="s">
         <v>45</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="10" t="s">
@@ -4840,7 +4840,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A16" s="24" t="s">
         <v>45</v>
       </c>
@@ -4861,7 +4861,7 @@
       <c r="H16" s="10"/>
       <c r="I16" s="35"/>
     </row>
-    <row r="17" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A17" s="24" t="s">
         <v>45</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A18" s="24" t="s">
         <v>45</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A19" s="24" t="s">
         <v>45</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
         <v>45</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
         <v>45</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
         <v>45</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A23" s="24" t="s">
         <v>45</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A24" s="25" t="s">
         <v>45</v>
       </c>
@@ -5061,7 +5061,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A25" s="24" t="s">
         <v>45</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A26" s="24" t="s">
         <v>45</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A27" s="24" t="s">
         <v>45</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
         <v>45</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A29" s="24" t="s">
         <v>45</v>
       </c>
@@ -5186,7 +5186,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A30" s="24" t="s">
         <v>45</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A31" s="24" t="s">
         <v>45</v>
       </c>
@@ -5236,7 +5236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A32" s="24" t="s">
         <v>45</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="83.1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="83.15" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A33" s="24" t="s">
         <v>45</v>
       </c>
@@ -5305,7 +5305,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId13"/>
   <webPublishItems count="1">
-    <webPublishItem id="1576" divId="BOM_X_Hemera_1576" sourceType="sheet" destinationFile="https://d.docs.live.net/e8bf86f88c49aa82/Documents/GitHub/HevORT/bom/BOM_X_Hemera.htm" autoRepublish="1"/>
+    <webPublishItem id="1576" divId="BOM_X_Hemera_1576" sourceType="sheet" destinationFile="C:\Users\olivi\OneDrive\Documents\GitHub\HevORT\bom\BOM_X_Hemera.htm" autoRepublish="1"/>
   </webPublishItems>
   <tableParts count="1">
     <tablePart r:id="rId14"/>
